--- a/Laporan Kegiatan.xlsx
+++ b/Laporan Kegiatan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Semester 7\Teknologi Kolaborasi Pengembangan Perangkat Lunak\Tugas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Semester 7\Teknologi Kolaborasi Pengembangan Perangkat Lunak\Tugas2\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Anggota</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Mencari Materi Terkait</t>
   </si>
 </sst>
 </file>
@@ -155,7 +158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -163,11 +166,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -464,51 +472,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -517,7 +525,9 @@
       <c r="C2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3"/>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -530,14 +540,16 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -550,14 +562,16 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
+      <c r="A4" s="6"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -570,7 +584,7 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -579,7 +593,9 @@
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -592,14 +608,16 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
+      <c r="A6" s="6"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -612,14 +630,16 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
+      <c r="A7" s="6"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -632,7 +652,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -641,7 +661,9 @@
       <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -654,14 +676,16 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -674,14 +698,16 @@
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>

--- a/Laporan Kegiatan.xlsx
+++ b/Laporan Kegiatan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>Anggota</t>
   </si>
@@ -101,7 +101,16 @@
     <t>-</t>
   </si>
   <si>
-    <t>Mencari Materi Terkait</t>
+    <t>Mencari Bahan yang 
+Dibutuhkan (Contohnya
+Gambar)</t>
+  </si>
+  <si>
+    <t>Menentukan Materi Terkait</t>
+  </si>
+  <si>
+    <t>Menentukan Materi 
+Terkait</t>
   </si>
 </sst>
 </file>
@@ -158,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -171,6 +180,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -461,7 +473,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -516,7 +528,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -528,7 +540,9 @@
       <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -540,7 +554,7 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -548,9 +562,11 @@
         <v>20</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -562,7 +578,7 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -572,7 +588,9 @@
       <c r="D4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -584,7 +602,7 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -596,7 +614,9 @@
       <c r="D5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -608,7 +628,7 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -616,9 +636,11 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -630,7 +652,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -640,7 +662,9 @@
       <c r="D7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -652,7 +676,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -664,7 +688,9 @@
       <c r="D8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -676,7 +702,7 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -684,9 +710,11 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -698,7 +726,7 @@
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -708,7 +736,9 @@
       <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>

--- a/Laporan Kegiatan.xlsx
+++ b/Laporan Kegiatan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>Anggota</t>
   </si>
@@ -111,6 +111,10 @@
   <si>
     <t>Menentukan Materi 
 Terkait</t>
+  </si>
+  <si>
+    <t>Mendesign UI
+(Membuat Sketsa)</t>
   </si>
 </sst>
 </file>
@@ -167,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -183,6 +187,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,7 +483,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,7 +538,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -543,7 +553,9 @@
       <c r="E2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -554,7 +566,7 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -567,7 +579,9 @@
       <c r="E3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3"/>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -578,7 +592,7 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -591,7 +605,9 @@
       <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3"/>
+      <c r="F4" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -602,7 +618,7 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -617,7 +633,9 @@
       <c r="E5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -628,7 +646,7 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -641,7 +659,9 @@
       <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -652,7 +672,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -665,7 +685,9 @@
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="3"/>
+      <c r="F7" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -676,7 +698,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -691,7 +713,9 @@
       <c r="E8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="3"/>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -702,7 +726,7 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -715,7 +739,9 @@
       <c r="E9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="3"/>
+      <c r="F9" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -726,7 +752,7 @@
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="7"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -739,7 +765,9 @@
       <c r="E10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>

--- a/Laporan Kegiatan.xlsx
+++ b/Laporan Kegiatan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>Anggota</t>
   </si>
@@ -115,6 +115,11 @@
   <si>
     <t>Mendesign UI
 (Membuat Sketsa)</t>
+  </si>
+  <si>
+    <t>Deisgn UI (Implementasi
+Sketsa dan Rancangan
+Akhir)</t>
   </si>
 </sst>
 </file>
@@ -171,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -193,6 +198,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -483,7 +491,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +546,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -556,7 +564,9 @@
       <c r="F2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -566,7 +576,7 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -582,7 +592,9 @@
       <c r="F3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3"/>
+      <c r="G3" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -592,7 +604,7 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -608,7 +620,9 @@
       <c r="F4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -618,7 +632,7 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -636,7 +650,9 @@
       <c r="F5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -646,7 +662,7 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -662,7 +678,9 @@
       <c r="F6" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -672,7 +690,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -688,7 +706,9 @@
       <c r="F7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -698,7 +718,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -716,7 +736,9 @@
       <c r="F8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="3"/>
+      <c r="G8" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -726,7 +748,7 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,7 +764,9 @@
       <c r="F9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="3"/>
+      <c r="G9" s="8" t="s">
+        <v>28</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -752,7 +776,7 @@
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="9"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,7 +792,9 @@
       <c r="F10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>

--- a/Laporan Kegiatan.xlsx
+++ b/Laporan Kegiatan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
   <si>
     <t>Anggota</t>
   </si>
@@ -117,9 +117,14 @@
 (Membuat Sketsa)</t>
   </si>
   <si>
-    <t>Deisgn UI (Implementasi
+    <t>Design UI (Implementasi
 Sketsa dan Rancangan
 Akhir)</t>
+  </si>
+  <si>
+    <t>Design UI (Implementasi
+Sketsa dan Rancangan
+Akhir (Part 2))</t>
   </si>
 </sst>
 </file>
@@ -176,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +203,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -491,7 +499,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,7 +554,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -567,7 +575,9 @@
       <c r="G2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -576,7 +586,7 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -595,7 +605,9 @@
       <c r="G3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -604,7 +616,7 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -623,7 +635,9 @@
       <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -632,7 +646,7 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -653,7 +667,9 @@
       <c r="G5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -662,7 +678,7 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -681,7 +697,9 @@
       <c r="G6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -690,7 +708,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -709,7 +727,9 @@
       <c r="G7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -718,7 +738,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -739,7 +759,9 @@
       <c r="G8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="3"/>
+      <c r="H8" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -748,7 +770,7 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,7 +789,9 @@
       <c r="G9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -776,7 +800,7 @@
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -795,7 +819,9 @@
       <c r="G10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>

--- a/Laporan Kegiatan.xlsx
+++ b/Laporan Kegiatan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
   <si>
     <t>Anggota</t>
   </si>
@@ -125,6 +125,10 @@
     <t>Design UI (Implementasi
 Sketsa dan Rancangan
 Akhir (Part 2))</t>
+  </si>
+  <si>
+    <t>Coding Function App
+(Part 1)</t>
   </si>
 </sst>
 </file>
@@ -181,7 +185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -203,6 +207,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -498,8 +505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -554,7 +561,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -578,7 +585,9 @@
       <c r="H2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -586,7 +595,7 @@
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -608,7 +617,9 @@
       <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="3"/>
+      <c r="I3" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -616,7 +627,7 @@
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -638,7 +649,9 @@
       <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -646,7 +659,7 @@
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -670,7 +683,9 @@
       <c r="H5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -678,7 +693,7 @@
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -700,7 +715,9 @@
       <c r="H6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -708,7 +725,7 @@
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -730,7 +747,9 @@
       <c r="H7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
@@ -738,7 +757,7 @@
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -762,7 +781,9 @@
       <c r="H8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -770,7 +791,7 @@
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,7 +813,9 @@
       <c r="H9" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
@@ -800,7 +823,7 @@
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -822,7 +845,9 @@
       <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>

--- a/Laporan Kegiatan.xlsx
+++ b/Laporan Kegiatan.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
   <si>
     <t>Anggota</t>
   </si>
@@ -129,6 +129,10 @@
   <si>
     <t>Coding Function App
 (Part 1)</t>
+  </si>
+  <si>
+    <t>coding Function App
+(Part 2)</t>
   </si>
 </sst>
 </file>
@@ -185,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -207,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -506,7 +513,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -561,7 +568,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -588,14 +595,16 @@
       <c r="I2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="3"/>
+      <c r="J2" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -620,14 +629,16 @@
       <c r="I3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="3"/>
+      <c r="J3" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -652,14 +663,16 @@
       <c r="I4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -686,14 +699,16 @@
       <c r="I5" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J5" s="3"/>
+      <c r="J5" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -718,14 +733,16 @@
       <c r="I6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="3"/>
+      <c r="J6" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -750,14 +767,16 @@
       <c r="I7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -784,14 +803,16 @@
       <c r="I8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="3"/>
+      <c r="J8" s="11" t="s">
+        <v>30</v>
+      </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,14 +837,16 @@
       <c r="I9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="3"/>
+      <c r="J9" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,7 +871,9 @@
       <c r="I10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>

--- a/Laporan Kegiatan.xlsx
+++ b/Laporan Kegiatan.xlsx
@@ -1,30 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Semester 7\Teknologi Kolaborasi Pengembangan Perangkat Lunak\Tugas2\Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView windowWidth="20490" windowHeight="7770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="33">
   <si>
     <t>Anggota</t>
   </si>
@@ -32,73 +22,57 @@
     <t>Pertanyaan</t>
   </si>
   <si>
-    <t>Apa yang kamu lakukan kemarin ?</t>
-  </si>
-  <si>
-    <t>Apa yang akan kamu kerjakan hari ini ?</t>
-  </si>
-  <si>
-    <t>Apakah terdapat hambatan ?</t>
-  </si>
-  <si>
-    <t>Christian
-(16.111.1957)</t>
+    <t>Hari Ke-1</t>
+  </si>
+  <si>
+    <t>Hari Ke-2</t>
+  </si>
+  <si>
+    <t>Hari Ke-3</t>
+  </si>
+  <si>
+    <t>Hari Ke-4</t>
+  </si>
+  <si>
+    <t>Hari Ke-5</t>
+  </si>
+  <si>
+    <t>Hari Ke-6</t>
+  </si>
+  <si>
+    <t>Hari Ke-7</t>
+  </si>
+  <si>
+    <t>Hari Ke-8</t>
+  </si>
+  <si>
+    <t>Hari Ke-9</t>
+  </si>
+  <si>
+    <t>Hari Ke-10</t>
+  </si>
+  <si>
+    <t>Hari Ke-11</t>
+  </si>
+  <si>
+    <t>Hari Ke-12</t>
   </si>
   <si>
     <t>Alvira Pantioka Suri
 (16.111.2715)</t>
   </si>
   <si>
-    <t>Steven Kangga
-(16.111.4023)</t>
-  </si>
-  <si>
-    <t>Hari Ke-2</t>
-  </si>
-  <si>
-    <t>Hari Ke-1</t>
-  </si>
-  <si>
-    <t>Hari Ke-3</t>
-  </si>
-  <si>
-    <t>Hari Ke-4</t>
-  </si>
-  <si>
-    <t>Hari Ke-5</t>
-  </si>
-  <si>
-    <t>Hari Ke-6</t>
-  </si>
-  <si>
-    <t>Hari Ke-7</t>
-  </si>
-  <si>
-    <t>Hari Ke-8</t>
-  </si>
-  <si>
-    <t>Hari Ke-9</t>
-  </si>
-  <si>
-    <t>Hari Ke-10</t>
-  </si>
-  <si>
-    <t>Hari Ke-11</t>
-  </si>
-  <si>
-    <t>Hari Ke-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menentukan Topik </t>
-  </si>
-  <si>
-    <t>Tidak</t>
+    <t>Apa yang kamu lakukan kemarin ?</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>Menentukan Topik</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Menentukan Materi 
+Terkait</t>
   </si>
   <si>
     <t>Mencari Bahan yang 
@@ -106,13 +80,6 @@
 Gambar)</t>
   </si>
   <si>
-    <t>Menentukan Materi Terkait</t>
-  </si>
-  <si>
-    <t>Menentukan Materi 
-Terkait</t>
-  </si>
-  <si>
     <t>Mendesign UI
 (Membuat Sketsa)</t>
   </si>
@@ -133,22 +100,206 @@
   <si>
     <t>coding Function App
 (Part 2)</t>
+  </si>
+  <si>
+    <t>Apa yang akan kamu kerjakan hari ini ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menentukan Topik </t>
+  </si>
+  <si>
+    <t>Menentukan Materi Terkait</t>
+  </si>
+  <si>
+    <t>coding Function App
+(Part 3)</t>
+  </si>
+  <si>
+    <t>Apakah terdapat hambatan ?</t>
+  </si>
+  <si>
+    <t>Tidak</t>
+  </si>
+  <si>
+    <t>Christian
+(16.111.1957)</t>
+  </si>
+  <si>
+    <t>Steven Kangga
+(16.111.4023)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +312,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -185,63 +522,319 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -290,7 +883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,7 +918,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,382 +1092,395 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="14" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.7809523809524" customWidth="1"/>
+    <col min="2" max="2" width="35.3333333333333" customWidth="1"/>
+    <col min="3" max="14" width="22.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="40.05" customHeight="1" spans="1:14">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="2" ht="49.95" customHeight="1" spans="1:14">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13"/>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" ht="49.95" customHeight="1" spans="1:14">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
+    <row r="4" ht="49.95" customHeight="1" spans="1:14">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="5" ht="49.95" customHeight="1" spans="1:14">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13"/>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
+    <row r="6" ht="49.95" customHeight="1" spans="1:14">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="I6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="K6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="13"/>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
+    <row r="7" ht="49.95" customHeight="1" spans="1:14">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
+    <row r="8" ht="49.95" customHeight="1" spans="1:14">
+      <c r="A8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="6" t="s">
+      <c r="K8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
+    <row r="9" ht="49.95" customHeight="1" spans="1:14">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="I9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="K9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="1:14" ht="49.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13"/>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>21</v>
+    <row r="10" ht="49.95" customHeight="1" spans="1:14">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -886,6 +1492,7 @@
     <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Laporan Kegiatan.xlsx
+++ b/Laporan Kegiatan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="34">
   <si>
     <t>Anggota</t>
   </si>
@@ -98,10 +98,14 @@
 (Part 1)</t>
   </si>
   <si>
-    <t>coding Function App
+    <t>Coding Function App
 (Part 2)</t>
   </si>
   <si>
+    <t>Coding Function App
+(Part 3)</t>
+  </si>
+  <si>
     <t>Apa yang akan kamu kerjakan hari ini ?</t>
   </si>
   <si>
@@ -111,8 +115,8 @@
     <t>Menentukan Materi Terkait</t>
   </si>
   <si>
-    <t>coding Function App
-(Part 3)</t>
+    <t>Coding Function App
+(Part 4)</t>
   </si>
   <si>
     <t>Apakah terdapat hambatan ?</t>
@@ -136,10 +140,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,13 +152,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -163,16 +184,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,43 +199,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -229,55 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,9 +229,68 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,187 +311,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,15 +516,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,6 +550,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -579,20 +576,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,156 +601,167 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,7 +1098,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1189,20 +1186,22 @@
       <c r="K2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" ht="49.95" customHeight="1" spans="1:14">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1223,51 +1222,55 @@
         <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
     <row r="4" ht="49.95" customHeight="1" spans="1:14">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
     <row r="5" ht="49.95" customHeight="1" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -1299,20 +1302,22 @@
       <c r="K5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
     <row r="6" ht="49.95" customHeight="1" spans="1:14">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1333,51 +1338,55 @@
         <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" ht="49.95" customHeight="1" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" ht="49.95" customHeight="1" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -1409,20 +1418,22 @@
       <c r="K8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" ht="49.95" customHeight="1" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -1443,45 +1454,49 @@
         <v>24</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" ht="49.95" customHeight="1" spans="1:14">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L10" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
     </row>

--- a/Laporan Kegiatan.xlsx
+++ b/Laporan Kegiatan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="35">
   <si>
     <t>Anggota</t>
   </si>
@@ -106,17 +106,21 @@
 (Part 3)</t>
   </si>
   <si>
-    <t>Apa yang akan kamu kerjakan hari ini ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menentukan Topik </t>
-  </si>
-  <si>
-    <t>Menentukan Materi Terkait</t>
-  </si>
-  <si>
     <t>Coding Function App
 (Part 4)</t>
+  </si>
+  <si>
+    <t>Apa yang akan kamu kerjakan hari ini ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menentukan Topik </t>
+  </si>
+  <si>
+    <t>Menentukan Materi Terkait</t>
+  </si>
+  <si>
+    <t>Coding Function App
+(Part 5)</t>
   </si>
   <si>
     <t>Apakah terdapat hambatan ?</t>
@@ -138,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -152,39 +156,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,6 +185,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -206,32 +254,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,58 +294,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,19 +315,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,163 +495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,17 +524,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,7 +561,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,11 +581,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,38 +621,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -638,130 +642,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1098,7 +1102,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1189,19 +1193,21 @@
       <c r="L2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="3"/>
+      <c r="M2" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="N2" s="3"/>
     </row>
     <row r="3" ht="49.95" customHeight="1" spans="1:14">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1225,52 +1231,56 @@
         <v>25</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="N3" s="3"/>
     </row>
     <row r="4" ht="49.95" customHeight="1" spans="1:14">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="N4" s="3"/>
     </row>
     <row r="5" ht="49.95" customHeight="1" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -1305,19 +1315,21 @@
       <c r="L5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" ht="49.95" customHeight="1" spans="1:14">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1341,52 +1353,56 @@
         <v>25</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="N6" s="3"/>
     </row>
     <row r="7" ht="49.95" customHeight="1" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="N7" s="3"/>
     </row>
     <row r="8" ht="49.95" customHeight="1" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -1421,19 +1437,21 @@
       <c r="L8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="N8" s="3"/>
     </row>
     <row r="9" ht="49.95" customHeight="1" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -1457,47 +1475,51 @@
         <v>25</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>26</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="N9" s="3"/>
     </row>
     <row r="10" ht="49.95" customHeight="1" spans="1:14">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="N10" s="3"/>
     </row>
   </sheetData>

--- a/Laporan Kegiatan.xlsx
+++ b/Laporan Kegiatan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7770"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
   <si>
     <t>Anggota</t>
   </si>
@@ -110,17 +110,20 @@
 (Part 4)</t>
   </si>
   <si>
-    <t>Apa yang akan kamu kerjakan hari ini ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menentukan Topik </t>
-  </si>
-  <si>
-    <t>Menentukan Materi Terkait</t>
-  </si>
-  <si>
     <t>Coding Function App
 (Part 5)</t>
+  </si>
+  <si>
+    <t>Apa yang akan kamu kerjakan hari ini ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menentukan Topik </t>
+  </si>
+  <si>
+    <t>Menentukan Materi Terkait</t>
+  </si>
+  <si>
+    <t>Membuat Presentasi Bespoke</t>
   </si>
   <si>
     <t>Apakah terdapat hambatan ?</t>
@@ -157,14 +160,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,39 +195,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +266,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -254,47 +281,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -315,187 +318,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,45 +541,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,10 +585,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,130 +645,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1101,15 +1104,16 @@
   <sheetPr/>
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26.7809523809524" customWidth="1"/>
     <col min="2" max="2" width="35.3333333333333" customWidth="1"/>
-    <col min="3" max="14" width="22.3333333333333" customWidth="1"/>
+    <col min="3" max="13" width="22.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="30.7047619047619" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="40.05" customHeight="1" spans="1:14">
@@ -1196,18 +1200,20 @@
       <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="3"/>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="3" ht="49.95" customHeight="1" spans="1:14">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -1234,53 +1240,57 @@
         <v>26</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="4" ht="49.95" customHeight="1" spans="1:14">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" ht="49.95" customHeight="1" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -1318,18 +1328,20 @@
       <c r="M5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="3"/>
+      <c r="N5" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" ht="49.95" customHeight="1" spans="1:14">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>19</v>
@@ -1356,53 +1368,57 @@
         <v>26</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" ht="49.95" customHeight="1" spans="1:14">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="8" ht="49.95" customHeight="1" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>15</v>
@@ -1440,18 +1456,20 @@
       <c r="M8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="3"/>
+      <c r="N8" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" ht="49.95" customHeight="1" spans="1:14">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>19</v>
@@ -1478,49 +1496,53 @@
         <v>26</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="3"/>
+        <v>27</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" ht="49.95" customHeight="1" spans="1:14">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Laporan Kegiatan.xlsx
+++ b/Laporan Kegiatan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Semester 7\Teknologi Kolaborasi Pengembangan Perangkat Lunak\Tugas2\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -149,8 +149,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,8 +158,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,6 +176,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -200,21 +225,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,18 +549,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1"/>
-    <col min="3" max="14" width="22.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="35.375" customWidth="1"/>
+    <col min="3" max="14" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="40.049999999999997" customHeight="1">
+    <row r="1" spans="1:14" ht="40.15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,387 +604,387 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:14" ht="49.9" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:14" ht="49.9" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:14" ht="49.9" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="C4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:14" ht="49.9" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:14" ht="49.9" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:14" ht="49.9" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" s="3" t="s">
+      <c r="C7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="15" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:14" ht="49.9" customHeight="1">
+      <c r="A8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:14" ht="49.9" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="49.95" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:14" ht="49.9" customHeight="1">
+      <c r="A10" s="8"/>
+      <c r="B10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N10" s="3" t="s">
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>32</v>
       </c>
     </row>
